--- a/data/outputs/management_altmetric/82.xlsx
+++ b/data/outputs/management_altmetric/82.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE145"/>
+  <dimension ref="A1:CF145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1029,6 +1034,9 @@
       <c r="CE2" t="n">
         <v>1</v>
       </c>
+      <c r="CF2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1280,6 +1288,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>4.45</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1535,6 +1546,9 @@
       <c r="CE4" t="n">
         <v>1</v>
       </c>
+      <c r="CF4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1794,6 +1808,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2041,6 +2058,9 @@
       <c r="CE6" t="n">
         <v>1</v>
       </c>
+      <c r="CF6" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2300,6 +2320,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2545,6 +2568,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2796,6 +2822,9 @@
       <c r="CE9" t="n">
         <v>1</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3055,6 +3084,9 @@
       <c r="CE10" t="n">
         <v>1</v>
       </c>
+      <c r="CF10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3317,6 +3349,9 @@
       </c>
       <c r="CE11" t="n">
         <v>1</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>29.45</v>
       </c>
     </row>
     <row r="12">
@@ -3563,6 +3598,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3806,6 +3844,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4053,6 +4094,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4304,6 +4348,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4567,6 +4614,9 @@
       <c r="CE16" t="n">
         <v>1</v>
       </c>
+      <c r="CF16" t="n">
+        <v>20.54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4836,6 +4886,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5098,6 +5151,9 @@
       </c>
       <c r="CE18" t="n">
         <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="19">
@@ -5346,6 +5402,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>3.35</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5607,6 +5666,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5874,6 +5936,9 @@
       <c r="CE21" t="n">
         <v>1</v>
       </c>
+      <c r="CF21" t="n">
+        <v>6.35</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6137,6 +6202,9 @@
       <c r="CE22" t="n">
         <v>1</v>
       </c>
+      <c r="CF22" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6392,6 +6460,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6637,6 +6708,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6902,6 +6976,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7161,6 +7238,9 @@
       <c r="CE26" t="n">
         <v>1</v>
       </c>
+      <c r="CF26" t="n">
+        <v>15.7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7412,6 +7492,9 @@
         <v>0</v>
       </c>
       <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7655,6 +7738,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7910,6 +7996,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>8.564</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8159,6 +8248,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8414,6 +8506,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>23.408</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8669,6 +8764,9 @@
       <c r="CE32" t="n">
         <v>1</v>
       </c>
+      <c r="CF32" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8918,6 +9016,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9173,6 +9274,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9432,6 +9536,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9679,6 +9786,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9938,6 +10048,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10187,6 +10300,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10432,6 +10548,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10687,6 +10806,9 @@
         <v>0</v>
       </c>
       <c r="CE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10932,6 +11054,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11173,6 +11298,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11416,6 +11544,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11665,6 +11796,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11918,6 +12052,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12173,6 +12310,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12422,6 +12562,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12681,6 +12824,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12926,6 +13072,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13177,6 +13326,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>18.05</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13427,6 +13579,9 @@
       </c>
       <c r="CE51" t="n">
         <v>0</v>
+      </c>
+      <c r="CF51" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="52">
@@ -13667,6 +13822,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13910,6 +14068,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14160,6 +14321,9 @@
       </c>
       <c r="CE54" t="n">
         <v>0</v>
+      </c>
+      <c r="CF54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -14392,6 +14556,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14655,6 +14822,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14918,6 +15088,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15173,6 +15346,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15428,6 +15604,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15685,6 +15864,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15932,6 +16114,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16183,6 +16368,9 @@
       <c r="CE62" t="n">
         <v>2</v>
       </c>
+      <c r="CF62" t="n">
+        <v>62.478</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16434,6 +16622,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>9.507999999999999</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16693,6 +16884,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16944,6 +17138,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17207,6 +17404,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>41.1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17454,6 +17654,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17701,6 +17904,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>11.75</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17950,6 +18156,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18207,6 +18416,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18466,6 +18678,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18729,6 +18944,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>16.1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18984,6 +19202,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>6.05</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19247,6 +19468,9 @@
       <c r="CE74" t="n">
         <v>1</v>
       </c>
+      <c r="CF74" t="n">
+        <v>32.75</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19498,6 +19722,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19749,6 +19976,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -20000,6 +20230,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>7.35</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -20259,6 +20492,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>5.35</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20510,6 +20746,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20767,6 +21006,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -21018,6 +21260,9 @@
       <c r="CE81" t="n">
         <v>1</v>
       </c>
+      <c r="CF81" t="n">
+        <v>10.75</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -21269,6 +21514,9 @@
       <c r="CE82" t="n">
         <v>1</v>
       </c>
+      <c r="CF82" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21520,6 +21768,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21779,6 +22030,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -22038,6 +22292,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -22285,6 +22542,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22536,6 +22796,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22795,6 +23058,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -23046,6 +23312,9 @@
       <c r="CE89" t="n">
         <v>1</v>
       </c>
+      <c r="CF89" t="n">
+        <v>14.6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -23309,6 +23578,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23562,6 +23834,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23813,6 +24088,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -24070,6 +24348,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -24329,6 +24610,9 @@
       <c r="CE94" t="n">
         <v>1</v>
       </c>
+      <c r="CF94" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24584,6 +24868,9 @@
         <v>0</v>
       </c>
       <c r="CE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24829,6 +25116,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>6.65</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -25082,6 +25372,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -25341,6 +25634,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>31.1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25594,6 +25890,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25845,6 +26144,9 @@
         <v>0</v>
       </c>
       <c r="CE100" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26090,6 +26392,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -26353,6 +26658,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26600,6 +26908,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26851,6 +27162,9 @@
       <c r="CE104" t="n">
         <v>1</v>
       </c>
+      <c r="CF104" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -27108,6 +27422,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -27354,6 +27671,9 @@
       </c>
       <c r="CE106" t="n">
         <v>0</v>
+      </c>
+      <c r="CF106" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="107">
@@ -27598,6 +27918,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27847,6 +28170,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -28097,6 +28423,9 @@
       </c>
       <c r="CE109" t="n">
         <v>0</v>
+      </c>
+      <c r="CF109" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="110">
@@ -28339,6 +28668,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -28593,6 +28925,9 @@
       </c>
       <c r="CE111" t="n">
         <v>0</v>
+      </c>
+      <c r="CF111" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="112">
@@ -28841,6 +29176,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -29090,6 +29428,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -29345,6 +29686,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29596,6 +29940,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -29841,6 +30188,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -30091,6 +30441,9 @@
       </c>
       <c r="CE117" t="n">
         <v>0</v>
+      </c>
+      <c r="CF117" t="n">
+        <v>26.25</v>
       </c>
     </row>
     <row r="118">
@@ -30333,6 +30686,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -30574,6 +30930,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -30824,6 +31183,9 @@
       </c>
       <c r="CE120" t="n">
         <v>0</v>
+      </c>
+      <c r="CF120" t="n">
+        <v>10.3</v>
       </c>
     </row>
     <row r="121">
@@ -31066,6 +31428,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -31309,6 +31674,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -31552,6 +31920,9 @@
         <v>0</v>
       </c>
       <c r="CE123" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31801,6 +32172,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>14.15</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -32052,6 +32426,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>27.8</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -32303,6 +32680,9 @@
       <c r="CE126" t="n">
         <v>0</v>
       </c>
+      <c r="CF126" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -32554,6 +32934,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -32808,6 +33191,9 @@
       </c>
       <c r="CE128" t="n">
         <v>0</v>
+      </c>
+      <c r="CF128" t="n">
+        <v>4.45</v>
       </c>
     </row>
     <row r="129">
@@ -33052,6 +33438,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -33303,6 +33692,9 @@
       <c r="CE130" t="n">
         <v>0</v>
       </c>
+      <c r="CF130" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -33549,6 +33941,9 @@
       </c>
       <c r="CE131" t="n">
         <v>0</v>
+      </c>
+      <c r="CF131" t="n">
+        <v>10.05</v>
       </c>
     </row>
     <row r="132">
@@ -33791,6 +34186,9 @@
       <c r="CE132" t="n">
         <v>0</v>
       </c>
+      <c r="CF132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -34036,6 +34434,9 @@
       <c r="CE133" t="n">
         <v>0</v>
       </c>
+      <c r="CF133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -34286,6 +34687,9 @@
       </c>
       <c r="CE134" t="n">
         <v>0</v>
+      </c>
+      <c r="CF134" t="n">
+        <v>31.01</v>
       </c>
     </row>
     <row r="135">
@@ -34528,6 +34932,9 @@
       <c r="CE135" t="n">
         <v>0</v>
       </c>
+      <c r="CF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -34773,6 +35180,9 @@
       <c r="CE136" t="n">
         <v>0</v>
       </c>
+      <c r="CF136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -35028,6 +35438,9 @@
       <c r="CE137" t="n">
         <v>0</v>
       </c>
+      <c r="CF137" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -35275,6 +35688,9 @@
         <v>0</v>
       </c>
       <c r="CE138" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35518,6 +35934,9 @@
       <c r="CE139" t="n">
         <v>0</v>
       </c>
+      <c r="CF139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -35763,6 +36182,9 @@
       <c r="CE140" t="n">
         <v>0</v>
       </c>
+      <c r="CF140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -36014,6 +36436,9 @@
       <c r="CE141" t="n">
         <v>0</v>
       </c>
+      <c r="CF141" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -36261,6 +36686,9 @@
       <c r="CE142" t="n">
         <v>0</v>
       </c>
+      <c r="CF142" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -36515,6 +36943,9 @@
       </c>
       <c r="CE143" t="n">
         <v>0</v>
+      </c>
+      <c r="CF143" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="144">
@@ -36759,6 +37190,9 @@
       <c r="CE144" t="n">
         <v>0</v>
       </c>
+      <c r="CF144" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -37000,6 +37434,9 @@
       <c r="CE145" t="n">
         <v>0</v>
       </c>
+      <c r="CF145" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
